--- a/forecast_summary_B08F7HPJ4F.xlsx
+++ b/forecast_summary_B08F7HPJ4F.xlsx
@@ -488,7 +488,7 @@
         <v>166.4751861498553</v>
       </c>
       <c r="D2" t="n">
-        <v>234.3468343449142</v>
+        <v>234.0890616412142</v>
       </c>
       <c r="E2" t="n">
         <v>174</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C3" t="n">
         <v>180.8397447646376</v>
       </c>
       <c r="D3" t="n">
-        <v>249.5076491481891</v>
+        <v>255.5624876177054</v>
       </c>
       <c r="E3" t="n">
         <v>105</v>
@@ -560,7 +560,7 @@
         <v>154.0090714360897</v>
       </c>
       <c r="D4" t="n">
-        <v>226.6255649450782</v>
+        <v>228.1469955562823</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" t="n">
         <v>105.3601955580259</v>
       </c>
       <c r="D5" t="n">
-        <v>180.7028828754909</v>
+        <v>171.0383102333376</v>
       </c>
       <c r="E5" t="n">
         <v>105</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="n">
         <v>64.84919566925181</v>
       </c>
       <c r="D6" t="n">
-        <v>137.2923843478614</v>
+        <v>129.1274725553662</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
         <v>48.89471581103997</v>
       </c>
       <c r="D7" t="n">
-        <v>118.8660328383326</v>
+        <v>121.9366143077742</v>
       </c>
       <c r="E7" t="n">
         <v>67</v>
@@ -704,7 +704,7 @@
         <v>53.08408112802231</v>
       </c>
       <c r="D8" t="n">
-        <v>123.7919232877161</v>
+        <v>122.4787996547277</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C9" t="n">
         <v>63.19006356021882</v>
       </c>
       <c r="D9" t="n">
-        <v>133.2448155376883</v>
+        <v>138.1457550133834</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="n">
         <v>68.60224395789895</v>
       </c>
       <c r="D10" t="n">
-        <v>141.3399672337405</v>
+        <v>142.975817229278</v>
       </c>
       <c r="E10" t="n">
         <v>65</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
         <v>65.9676905849193</v>
       </c>
       <c r="D11" t="n">
-        <v>141.5139094011011</v>
+        <v>130.5190494994928</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
         <v>55.90581604176235</v>
       </c>
       <c r="D12" t="n">
-        <v>123.1563236719524</v>
+        <v>129.8849263716982</v>
       </c>
       <c r="E12" t="n">
         <v>68</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
         <v>41.45379216004909</v>
       </c>
       <c r="D13" t="n">
-        <v>111.8809033529902</v>
+        <v>116.591158556338</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -920,7 +920,7 @@
         <v>29.02486284422996</v>
       </c>
       <c r="D14" t="n">
-        <v>103.0672500213886</v>
+        <v>100.7306759217145</v>
       </c>
       <c r="E14" t="n">
         <v>66</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="n">
         <v>25.79464953480029</v>
       </c>
       <c r="D15" t="n">
-        <v>93.30304830104535</v>
+        <v>98.98452153795701</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>32.72261470460429</v>
       </c>
       <c r="D16" t="n">
-        <v>105.0662604173101</v>
+        <v>101.3594400008375</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1028,7 +1028,7 @@
         <v>41.68677369843287</v>
       </c>
       <c r="D17" t="n">
-        <v>109.8690980712604</v>
+        <v>110.3852022442807</v>
       </c>
       <c r="E17" t="n">
         <v>62</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
         <v>43.1172197491487</v>
       </c>
       <c r="D18" t="n">
-        <v>115.4354479669998</v>
+        <v>114.247613863925</v>
       </c>
       <c r="E18" t="n">
         <v>59</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>37.28832950554266</v>
       </c>
       <c r="D19" t="n">
-        <v>103.3528651153817</v>
+        <v>107.9919638190198</v>
       </c>
       <c r="E19" t="n">
         <v>56</v>
@@ -1136,7 +1136,7 @@
         <v>35.35349654581896</v>
       </c>
       <c r="D20" t="n">
-        <v>103.9339010223012</v>
+        <v>104.796324783441</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -1166,13 +1166,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C21" t="n">
         <v>46.74881781857644</v>
       </c>
       <c r="D21" t="n">
-        <v>113.7417464556093</v>
+        <v>119.8240781494048</v>
       </c>
       <c r="E21" t="n">
         <v>57</v>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1006</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>691</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
     </row>

--- a/forecast_summary_B08F7HPJ4F.xlsx
+++ b/forecast_summary_B08F7HPJ4F.xlsx
@@ -482,13 +482,13 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" t="n">
-        <v>166.4751861498553</v>
+        <v>167.1059298179758</v>
       </c>
       <c r="D2" t="n">
-        <v>234.0890616412142</v>
+        <v>233.4827336497382</v>
       </c>
       <c r="E2" t="n">
         <v>174</v>
@@ -518,13 +518,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C3" t="n">
-        <v>180.8397447646376</v>
+        <v>201.6203085618776</v>
       </c>
       <c r="D3" t="n">
-        <v>255.5624876177054</v>
+        <v>267.4409314337424</v>
       </c>
       <c r="E3" t="n">
         <v>105</v>
@@ -554,13 +554,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C4" t="n">
-        <v>154.0090714360897</v>
+        <v>200.0406769189438</v>
       </c>
       <c r="D4" t="n">
-        <v>228.1469955562823</v>
+        <v>265.641136710668</v>
       </c>
       <c r="E4" t="n">
         <v>86</v>
@@ -590,13 +590,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="C5" t="n">
-        <v>105.3601955580259</v>
+        <v>164.9148641149663</v>
       </c>
       <c r="D5" t="n">
-        <v>171.0383102333376</v>
+        <v>230.7995255636625</v>
       </c>
       <c r="E5" t="n">
         <v>105</v>
@@ -626,13 +626,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C6" t="n">
-        <v>64.84919566925181</v>
+        <v>118.2333547034587</v>
       </c>
       <c r="D6" t="n">
-        <v>129.1274725553662</v>
+        <v>180.9120117734545</v>
       </c>
       <c r="E6" t="n">
         <v>83</v>
@@ -662,13 +662,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C7" t="n">
-        <v>48.89471581103997</v>
+        <v>84.65157752896747</v>
       </c>
       <c r="D7" t="n">
-        <v>121.9366143077742</v>
+        <v>150.0754225833382</v>
       </c>
       <c r="E7" t="n">
         <v>67</v>
@@ -698,13 +698,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C8" t="n">
-        <v>53.08408112802231</v>
+        <v>75.60036606439833</v>
       </c>
       <c r="D8" t="n">
-        <v>122.4787996547277</v>
+        <v>145.1515027657788</v>
       </c>
       <c r="E8" t="n">
         <v>71</v>
@@ -734,13 +734,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C9" t="n">
-        <v>63.19006356021882</v>
+        <v>85.14664910913621</v>
       </c>
       <c r="D9" t="n">
-        <v>138.1457550133834</v>
+        <v>151.2906278180206</v>
       </c>
       <c r="E9" t="n">
         <v>66</v>
@@ -770,13 +770,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C10" t="n">
-        <v>68.60224395789895</v>
+        <v>97.37373920279246</v>
       </c>
       <c r="D10" t="n">
-        <v>142.975817229278</v>
+        <v>166.0282237860615</v>
       </c>
       <c r="E10" t="n">
         <v>65</v>
@@ -806,13 +806,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C11" t="n">
-        <v>65.9676905849193</v>
+        <v>97.95642834217539</v>
       </c>
       <c r="D11" t="n">
-        <v>130.5190494994928</v>
+        <v>164.7731288336821</v>
       </c>
       <c r="E11" t="n">
         <v>62</v>
@@ -842,13 +842,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C12" t="n">
-        <v>55.90581604176235</v>
+        <v>82.75064613180304</v>
       </c>
       <c r="D12" t="n">
-        <v>129.8849263716982</v>
+        <v>147.668125533089</v>
       </c>
       <c r="E12" t="n">
         <v>68</v>
@@ -878,13 +878,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>41.45379216004909</v>
+        <v>59.44231352600713</v>
       </c>
       <c r="D13" t="n">
-        <v>116.591158556338</v>
+        <v>126.5514097201766</v>
       </c>
       <c r="E13" t="n">
         <v>69</v>
@@ -914,13 +914,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14" t="n">
-        <v>29.02486284422996</v>
+        <v>41.53080811846134</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7306759217145</v>
+        <v>111.7445645308024</v>
       </c>
       <c r="E14" t="n">
         <v>66</v>
@@ -950,13 +950,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>25.79464953480029</v>
+        <v>37.97201290751183</v>
       </c>
       <c r="D15" t="n">
-        <v>98.98452153795701</v>
+        <v>105.5729122968121</v>
       </c>
       <c r="E15" t="n">
         <v>62</v>
@@ -986,13 +986,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" t="n">
-        <v>32.72261470460429</v>
+        <v>45.99889285654061</v>
       </c>
       <c r="D16" t="n">
-        <v>101.3594400008375</v>
+        <v>114.8890813783523</v>
       </c>
       <c r="E16" t="n">
         <v>63</v>
@@ -1022,13 +1022,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>41.68677369843287</v>
+        <v>54.00060368984448</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3852022442807</v>
+        <v>123.8786017882095</v>
       </c>
       <c r="E17" t="n">
         <v>62</v>
@@ -1058,13 +1058,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
-        <v>43.1172197491487</v>
+        <v>53.07273825075107</v>
       </c>
       <c r="D18" t="n">
-        <v>114.247613863925</v>
+        <v>121.2215513746853</v>
       </c>
       <c r="E18" t="n">
         <v>59</v>
@@ -1094,13 +1094,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="n">
-        <v>37.28832950554266</v>
+        <v>46.41995079706984</v>
       </c>
       <c r="D19" t="n">
-        <v>107.9919638190198</v>
+        <v>115.4586945461918</v>
       </c>
       <c r="E19" t="n">
         <v>56</v>
@@ -1130,13 +1130,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>35.35349654581896</v>
+        <v>46.24715407478611</v>
       </c>
       <c r="D20" t="n">
-        <v>104.796324783441</v>
+        <v>114.2889680644493</v>
       </c>
       <c r="E20" t="n">
         <v>65</v>
@@ -1166,13 +1166,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
-        <v>46.74881781857644</v>
+        <v>60.14162140588037</v>
       </c>
       <c r="D21" t="n">
-        <v>119.8240781494048</v>
+        <v>123.5447517026543</v>
       </c>
       <c r="E21" t="n">
         <v>57</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1829</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1203</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>786</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
     </row>
